--- a/test.xlsx
+++ b/test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>START DATE</t>
   </si>
@@ -46,6 +46,24 @@
   </si>
   <si>
     <t>SCHEDULED</t>
+  </si>
+  <si>
+    <t>yrdyrd</t>
+  </si>
+  <si>
+    <t>etgseg</t>
+  </si>
+  <si>
+    <t>esges</t>
+  </si>
+  <si>
+    <t>segesg</t>
+  </si>
+  <si>
+    <t>seges</t>
+  </si>
+  <si>
+    <t>sg</t>
   </si>
 </sst>
 </file>
@@ -375,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
@@ -431,6 +449,26 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
